--- a/genomic_traits/trait_gene_annotations/brenda_results_extracellluar enzymes.xlsx
+++ b/genomic_traits/trait_gene_annotations/brenda_results_extracellluar enzymes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oweisberg\Documents\GitHub\recycle_model\genomic_traits\trait_gene_annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osnat\Documents\GitHub\recycle_model\genomic_traits\trait_gene_annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159C3B0-A6F0-44CE-A659-EEDD8D9E0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932DD56C-4006-42D5-9366-D440835EAA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD4C684B-F0BE-4FB7-8BF0-9C62C02BC798}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD4C684B-F0BE-4FB7-8BF0-9C62C02BC798}"/>
   </bookViews>
   <sheets>
     <sheet name="brenda_results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t xml:space="preserve"> extracellular CuZnSOD</t>
   </si>
@@ -127,18 +127,6 @@
     <t xml:space="preserve"> extracellular proteinase	-	</t>
   </si>
   <si>
-    <t>ROS</t>
-  </si>
-  <si>
-    <t>Nuc</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>N storage</t>
-  </si>
-  <si>
     <t>1.1.3.13</t>
   </si>
   <si>
@@ -437,6 +425,21 @@
   </si>
   <si>
     <t>name6</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>extracellular ROS</t>
+  </si>
+  <si>
+    <t>extracellular Nuc</t>
+  </si>
+  <si>
+    <t>extracellular Protein</t>
+  </si>
+  <si>
+    <t>extracellular N storage</t>
   </si>
 </sst>
 </file>
@@ -1319,11 +1322,12 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.125" customWidth="1"/>
@@ -1332,110 +1336,113 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>0</v>
@@ -1448,42 +1455,51 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -1529,14 +1545,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1549,28 +1568,34 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
       <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -1595,28 +1620,34 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
       <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1630,72 +1661,84 @@
     </row>
     <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D16" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
         <v>30</v>
@@ -1703,64 +1746,67 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>99</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
       </c>
       <c r="F23" t="s">
         <v>31</v>
@@ -1768,98 +1814,101 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>118</v>
-      </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -1867,16 +1916,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
         <v>33</v>
@@ -1887,33 +1936,36 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
         <v>125</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
